--- a/public/map.xlsx
+++ b/public/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-uchan/Desktop/snapmap/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A8297-61A7-C14A-94CB-FB09FDB60B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121BC92-3403-2A40-9A8B-02D0883E1C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{BC7F50CE-7187-DB44-B9FF-60524A107713}"/>
+    <workbookView xWindow="8480" yWindow="9560" windowWidth="51200" windowHeight="16180" xr2:uid="{BC7F50CE-7187-DB44-B9FF-60524A107713}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,9 +182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D53ECF-872C-C544-9C05-1B4B264EE0B4}">
-  <dimension ref="F1:P200"/>
+  <dimension ref="F1:AN200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -553,13 +546,13 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
         <v>4</v>
       </c>
       <c r="K7" s="3">
@@ -588,13 +581,13 @@
       <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
         <v>4</v>
       </c>
       <c r="K8" s="6">
@@ -620,10 +613,10 @@
       <c r="F9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>2</v>
       </c>
       <c r="O9" s="2">
@@ -646,7 +639,7 @@
       <c r="O10" s="8">
         <v>7</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>7</v>
       </c>
     </row>
@@ -663,7 +656,7 @@
       <c r="O11" s="8">
         <v>7</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>7</v>
       </c>
     </row>
@@ -684,26 +677,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="6:16" ht="50" customHeight="1"/>
-    <row r="14" spans="6:16" ht="50" customHeight="1"/>
-    <row r="15" spans="6:16" ht="50" customHeight="1"/>
-    <row r="16" spans="6:16" ht="50" customHeight="1"/>
-    <row r="17" ht="50" customHeight="1"/>
-    <row r="18" ht="50" customHeight="1"/>
-    <row r="19" ht="50" customHeight="1"/>
-    <row r="20" ht="50" customHeight="1"/>
-    <row r="21" ht="50" customHeight="1"/>
-    <row r="22" ht="50" customHeight="1"/>
-    <row r="23" ht="50" customHeight="1"/>
-    <row r="24" ht="50" customHeight="1"/>
-    <row r="25" ht="50" customHeight="1"/>
-    <row r="26" ht="50" customHeight="1"/>
-    <row r="27" ht="50" customHeight="1"/>
-    <row r="28" ht="50" customHeight="1"/>
-    <row r="29" ht="50" customHeight="1"/>
-    <row r="30" ht="50" customHeight="1"/>
-    <row r="31" ht="50" customHeight="1"/>
-    <row r="32" ht="50" customHeight="1"/>
+    <row r="13" spans="6:16" ht="50" customHeight="1">
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" ht="50" customHeight="1">
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" ht="50" customHeight="1">
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" ht="50" customHeight="1">
+      <c r="F16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="6:40" ht="50" customHeight="1">
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="6:40" ht="50" customHeight="1">
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="6:40" ht="50" customHeight="1">
+      <c r="F19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:40" ht="50" customHeight="1">
+      <c r="F20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="6:40" ht="50" customHeight="1">
+      <c r="F21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="6:40" ht="50" customHeight="1"/>
+    <row r="23" spans="6:40" ht="50" customHeight="1"/>
+    <row r="24" spans="6:40" ht="50" customHeight="1"/>
+    <row r="25" spans="6:40" ht="50" customHeight="1"/>
+    <row r="26" spans="6:40" ht="50" customHeight="1"/>
+    <row r="27" spans="6:40" ht="50" customHeight="1"/>
+    <row r="28" spans="6:40" ht="50" customHeight="1"/>
+    <row r="29" spans="6:40" ht="50" customHeight="1"/>
+    <row r="30" spans="6:40" ht="50" customHeight="1"/>
+    <row r="31" spans="6:40" ht="50" customHeight="1"/>
+    <row r="32" spans="6:40" ht="50" customHeight="1"/>
     <row r="33" ht="50" customHeight="1"/>
     <row r="34" ht="50" customHeight="1"/>
     <row r="35" ht="50" customHeight="1"/>

--- a/public/map.xlsx
+++ b/public/map.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-uchan/Desktop/snapmap/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121BC92-3403-2A40-9A8B-02D0883E1C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3727BF04-D925-3849-B013-6F834F99849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="9560" windowWidth="51200" windowHeight="16180" xr2:uid="{BC7F50CE-7187-DB44-B9FF-60524A107713}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{BC7F50CE-7187-DB44-B9FF-60524A107713}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -71,6 +60,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -132,31 +201,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +236,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,221 +593,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D53ECF-872C-C544-9C05-1B4B264EE0B4}">
-  <dimension ref="F1:AN200"/>
+  <dimension ref="H1:AE200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="486" width="7.140625" style="1" customWidth="1"/>
-    <col min="487" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="485" width="7.140625" style="1" customWidth="1"/>
+    <col min="486" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:16" ht="50" customHeight="1"/>
-    <row r="2" spans="6:16" ht="50" customHeight="1"/>
-    <row r="3" spans="6:16" ht="50" customHeight="1"/>
-    <row r="4" spans="6:16" ht="50" customHeight="1"/>
-    <row r="5" spans="6:16" ht="50" customHeight="1"/>
-    <row r="6" spans="6:16" ht="50" customHeight="1"/>
-    <row r="7" spans="6:16" ht="50" customHeight="1">
-      <c r="F7" s="2">
+    <row r="1" spans="8:26" ht="50" customHeight="1"/>
+    <row r="2" spans="8:26" ht="50" customHeight="1"/>
+    <row r="3" spans="8:26" ht="50" customHeight="1"/>
+    <row r="4" spans="8:26" ht="50" customHeight="1" thickBot="1"/>
+    <row r="5" spans="8:26" ht="50" customHeight="1">
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="8:26" ht="50" customHeight="1">
+      <c r="H6" s="5">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="8:26" ht="50" customHeight="1">
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="8:26" ht="50" customHeight="1">
+      <c r="H8" s="5">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12">
+        <v>21</v>
+      </c>
+      <c r="L8" s="12">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12">
+        <v>23</v>
+      </c>
+      <c r="N8" s="12">
+        <v>24</v>
+      </c>
+      <c r="O8" s="12">
+        <v>25</v>
+      </c>
+      <c r="P8" s="12">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
+        <v>27</v>
+      </c>
+      <c r="S8" s="12">
+        <v>28</v>
+      </c>
+      <c r="T8" s="12">
+        <v>29</v>
+      </c>
+      <c r="U8" s="12">
+        <v>30</v>
+      </c>
+      <c r="V8" s="12">
+        <v>31</v>
+      </c>
+      <c r="W8" s="12">
+        <v>32</v>
+      </c>
+      <c r="X8" s="13">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="8:26" ht="50" customHeight="1">
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="10">
+        <v>16</v>
+      </c>
+      <c r="J9" s="14">
+        <v>33</v>
+      </c>
+      <c r="K9" s="15">
+        <v>33</v>
+      </c>
+      <c r="L9" s="15">
+        <v>34</v>
+      </c>
+      <c r="M9" s="15">
+        <v>35</v>
+      </c>
+      <c r="N9" s="15">
+        <v>36</v>
+      </c>
+      <c r="O9" s="15">
+        <v>37</v>
+      </c>
+      <c r="P9" s="15">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>39</v>
+      </c>
+      <c r="R9" s="15">
+        <v>40</v>
+      </c>
+      <c r="S9" s="15">
+        <v>41</v>
+      </c>
+      <c r="T9" s="15">
+        <v>42</v>
+      </c>
+      <c r="U9" s="15">
+        <v>43</v>
+      </c>
+      <c r="V9" s="15">
+        <v>44</v>
+      </c>
+      <c r="W9" s="15">
+        <v>45</v>
+      </c>
+      <c r="X9" s="16">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="8:26" ht="50" customHeight="1">
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="8:26" ht="50" customHeight="1">
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="8:26" ht="50" customHeight="1">
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="8:26" ht="50" customHeight="1">
+      <c r="H13" s="5">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="8:26" ht="50" customHeight="1">
+      <c r="H14" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4</v>
-      </c>
-      <c r="L7" s="4">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6</v>
-      </c>
-      <c r="P7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="6:16" ht="50" customHeight="1">
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7">
-        <v>4</v>
-      </c>
-      <c r="M8" s="5">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5</v>
-      </c>
-      <c r="O8" s="5">
-        <v>6</v>
-      </c>
-      <c r="P8" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="6:16" ht="50" customHeight="1">
-      <c r="F9" s="8">
+      <c r="I14" s="6">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>52</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="8:26" ht="50" customHeight="1">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>7</v>
-      </c>
-      <c r="P9" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="6:16" ht="50" customHeight="1">
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="O10" s="8">
-        <v>7</v>
-      </c>
-      <c r="P10" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="6:16" ht="50" customHeight="1">
-      <c r="F11" s="2">
+      <c r="I15" s="6">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="8:26" ht="50" customHeight="1">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I16" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="8:31" ht="50" customHeight="1" thickBot="1">
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
-        <v>7</v>
-      </c>
-      <c r="P11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="6:16" ht="50" customHeight="1">
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>7</v>
-      </c>
-      <c r="P12" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="6:16" ht="50" customHeight="1">
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="6:16" ht="50" customHeight="1">
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="6:16" ht="50" customHeight="1">
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="6:16" ht="50" customHeight="1">
-      <c r="F16" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="6:40" ht="50" customHeight="1">
-      <c r="F17" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="6:40" ht="50" customHeight="1">
-      <c r="F18" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="6:40" ht="50" customHeight="1">
-      <c r="F19" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="6:40" ht="50" customHeight="1">
-      <c r="F20" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="6:40" ht="50" customHeight="1">
-      <c r="F21" s="1">
-        <v>16</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="6:40" ht="50" customHeight="1"/>
-    <row r="23" spans="6:40" ht="50" customHeight="1"/>
-    <row r="24" spans="6:40" ht="50" customHeight="1"/>
-    <row r="25" spans="6:40" ht="50" customHeight="1"/>
-    <row r="26" spans="6:40" ht="50" customHeight="1"/>
-    <row r="27" spans="6:40" ht="50" customHeight="1"/>
-    <row r="28" spans="6:40" ht="50" customHeight="1"/>
-    <row r="29" spans="6:40" ht="50" customHeight="1"/>
-    <row r="30" spans="6:40" ht="50" customHeight="1"/>
-    <row r="31" spans="6:40" ht="50" customHeight="1"/>
-    <row r="32" spans="6:40" ht="50" customHeight="1"/>
+      <c r="I17" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="8:31" ht="50" customHeight="1">
+      <c r="Y18" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>68</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>68</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>68</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>68</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="8:31" ht="50" customHeight="1">
+      <c r="Y19" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="8:31" ht="50" customHeight="1">
+      <c r="Y20" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="8:31" ht="50" customHeight="1">
+      <c r="Y21" s="5">
+        <v>68</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="8:31" ht="50" customHeight="1" thickBot="1">
+      <c r="Y22" s="7">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>68</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>68</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>68</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>68</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>68</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="8:31" ht="50" customHeight="1"/>
+    <row r="24" spans="8:31" ht="50" customHeight="1"/>
+    <row r="25" spans="8:31" ht="50" customHeight="1"/>
+    <row r="26" spans="8:31" ht="50" customHeight="1"/>
+    <row r="27" spans="8:31" ht="50" customHeight="1"/>
+    <row r="28" spans="8:31" ht="50" customHeight="1"/>
+    <row r="29" spans="8:31" ht="50" customHeight="1"/>
+    <row r="30" spans="8:31" ht="50" customHeight="1"/>
+    <row r="31" spans="8:31" ht="50" customHeight="1"/>
+    <row r="32" spans="8:31" ht="50" customHeight="1"/>
     <row r="33" ht="50" customHeight="1"/>
     <row r="34" ht="50" customHeight="1"/>
     <row r="35" ht="50" customHeight="1"/>
